--- a/iroad/test.xlsx
+++ b/iroad/test.xlsx
@@ -4,18 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23655" windowHeight="9345"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="0829" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="dicRange0">[1]ComboxSheet0!$A$2:$A$394</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>系统设置-系统用户信息</t>
   </si>
@@ -56,49 +62,52 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>邓剑</t>
+    <t>李银</t>
+  </si>
+  <si>
+    <t>四川省公路局</t>
+  </si>
+  <si>
+    <t>xxcliyin</t>
+  </si>
+  <si>
+    <t>何颜均</t>
+  </si>
+  <si>
+    <t>南充市阆中市交通局</t>
+  </si>
+  <si>
+    <t>lz_heyanjun</t>
+  </si>
+  <si>
+    <t>13698282866</t>
+  </si>
+  <si>
+    <t>张涛</t>
+  </si>
+  <si>
+    <t>lz_zhangtao</t>
+  </si>
+  <si>
+    <t>18081580333</t>
+  </si>
+  <si>
+    <t>罗利萍</t>
+  </si>
+  <si>
+    <t>内江市东兴区</t>
+  </si>
+  <si>
+    <t>dx_luoliping</t>
+  </si>
+  <si>
+    <t>18683210196</t>
+  </si>
+  <si>
+    <t>周兵</t>
   </si>
   <si>
     <t>农村公路县级采集</t>
-  </si>
-  <si>
-    <t>mg_dengjian</t>
-  </si>
-  <si>
-    <t>何颜均</t>
-  </si>
-  <si>
-    <t>南充市阆中市交通局</t>
-  </si>
-  <si>
-    <t>lz_heyanjun</t>
-  </si>
-  <si>
-    <t>13698282866</t>
-  </si>
-  <si>
-    <t>张涛</t>
-  </si>
-  <si>
-    <t>lz_zhangtao</t>
-  </si>
-  <si>
-    <t>18081580333</t>
-  </si>
-  <si>
-    <t>罗利萍</t>
-  </si>
-  <si>
-    <t>内江市东兴区</t>
-  </si>
-  <si>
-    <t>dx_luoliping</t>
-  </si>
-  <si>
-    <t>18683210196</t>
-  </si>
-  <si>
-    <t>周兵</t>
   </si>
   <si>
     <t>wy_zhoubing</t>
@@ -265,10 +274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -298,14 +307,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,15 +419,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,105 +443,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -456,37 +465,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,139 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,6 +698,69 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,54 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -771,21 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -794,145 +803,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,6 +1023,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T_XTSZ_USERINFO"/>
+      <sheetName val="ComboxSheet0"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1277,7 +1301,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1359,7 +1383,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>18981505842</v>
+        <v>17761275846</v>
       </c>
       <c r="E5">
         <v>123</v>
@@ -1447,10 +1471,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>13990501957</v>
@@ -1461,14 +1485,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>123</v>
@@ -1476,13 +1500,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>13518298836</v>
@@ -1493,13 +1517,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>13281918881</v>
@@ -1510,13 +1534,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>18482142057</v>
@@ -1527,13 +1551,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>18181118530</v>
@@ -1544,13 +1568,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1">
         <v>18783971113</v>
@@ -1561,13 +1585,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1">
         <v>18581730362</v>
@@ -1578,13 +1602,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
         <v>13980319709</v>
@@ -1595,13 +1619,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>18048954797</v>
@@ -1612,13 +1636,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1">
         <v>18781749072</v>
@@ -1629,13 +1653,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1">
         <v>15775866222</v>
@@ -1646,13 +1670,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>18780712164</v>
@@ -1663,13 +1687,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1">
         <v>15228161368</v>
@@ -1680,13 +1704,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>17745479811</v>
@@ -1697,13 +1721,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>18111010691</v>
@@ -1714,13 +1738,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1">
         <v>13508271799</v>
@@ -1731,13 +1755,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>13990873410</v>
@@ -1748,13 +1772,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1">
         <v>13778183919</v>
@@ -1765,13 +1789,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1">
         <v>15881481871</v>
@@ -1782,13 +1806,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1">
         <v>18990776911</v>
@@ -1799,13 +1823,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1">
         <v>18349843183</v>

--- a/iroad/test.xlsx
+++ b/iroad/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>系统设置-系统用户信息</t>
   </si>
@@ -62,13 +62,28 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>李银</t>
-  </si>
-  <si>
-    <t>四川省公路局</t>
-  </si>
-  <si>
-    <t>xxcliyin</t>
+    <t>康军</t>
+  </si>
+  <si>
+    <t>凉山州会理县交通局</t>
+  </si>
+  <si>
+    <t>kangjun_jsgc</t>
+  </si>
+  <si>
+    <t>15244996669</t>
+  </si>
+  <si>
+    <t>周长超</t>
+  </si>
+  <si>
+    <t>凉山州冕宁县交通局</t>
+  </si>
+  <si>
+    <t>zhouchangchao_jsgc</t>
+  </si>
+  <si>
+    <t>13550457739</t>
   </si>
   <si>
     <t>何颜均</t>
@@ -274,12 +289,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +321,64 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -317,6 +390,60 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,83 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,37 +469,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -465,12 +485,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -478,174 +666,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,9 +720,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,30 +777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -757,6 +788,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,26 +815,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,137 +835,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +982,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,13 +1321,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
@@ -1373,21 +1396,74 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>17761275846</v>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E5">
         <v>123</v>
       </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1417,16 +1493,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E1">
         <v>123</v>
@@ -1434,16 +1510,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -1451,16 +1527,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>123</v>
@@ -1468,13 +1544,13 @@
     </row>
     <row r="4" customFormat="1" spans="1:5">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>13990501957</v>
@@ -1485,14 +1561,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>123</v>
@@ -1500,13 +1576,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>13518298836</v>
@@ -1517,13 +1593,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>13281918881</v>
@@ -1534,13 +1610,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>18482142057</v>
@@ -1551,13 +1627,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <v>18181118530</v>
@@ -1568,13 +1644,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>18783971113</v>
@@ -1585,13 +1661,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>18581730362</v>
@@ -1602,13 +1678,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>13980319709</v>
@@ -1619,13 +1695,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>18048954797</v>
@@ -1636,13 +1712,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
         <v>18781749072</v>
@@ -1653,13 +1729,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>15775866222</v>
@@ -1670,13 +1746,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1">
         <v>18780712164</v>
@@ -1687,13 +1763,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>15228161368</v>
@@ -1704,13 +1780,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1">
         <v>17745479811</v>
@@ -1721,13 +1797,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1">
         <v>18111010691</v>
@@ -1738,13 +1814,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1">
         <v>13508271799</v>
@@ -1755,13 +1831,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1">
         <v>13990873410</v>
@@ -1772,13 +1848,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1">
         <v>13778183919</v>
@@ -1789,13 +1865,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1">
         <v>15881481871</v>
@@ -1806,13 +1882,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1">
         <v>18990776911</v>
@@ -1823,13 +1899,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1">
         <v>18349843183</v>

--- a/iroad/test.xlsx
+++ b/iroad/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="0829" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>系统设置-系统用户信息</t>
   </si>
@@ -62,28 +62,121 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>康军</t>
+    <t>马江</t>
+  </si>
+  <si>
+    <t>凉山州交投公司</t>
+  </si>
+  <si>
+    <t>majiang_jsgc</t>
+  </si>
+  <si>
+    <t>18728977689</t>
+  </si>
+  <si>
+    <t>王云</t>
+  </si>
+  <si>
+    <t>wangyun_jsgc</t>
+  </si>
+  <si>
+    <t>13508204203</t>
+  </si>
+  <si>
+    <t>周亮</t>
+  </si>
+  <si>
+    <t>zhouliang_jsgc</t>
+  </si>
+  <si>
+    <t>13881499467</t>
+  </si>
+  <si>
+    <t>钟留超</t>
+  </si>
+  <si>
+    <t>zhongliuchao_jsgc</t>
+  </si>
+  <si>
+    <t>15181516166</t>
+  </si>
+  <si>
+    <t>曲阳俊</t>
+  </si>
+  <si>
+    <t>quyangjun_jsgc</t>
+  </si>
+  <si>
+    <t>17828516060</t>
+  </si>
+  <si>
+    <t>刘勇</t>
+  </si>
+  <si>
+    <t>liuyong_jsgc</t>
+  </si>
+  <si>
+    <t>18282886556</t>
+  </si>
+  <si>
+    <t>陈东明</t>
+  </si>
+  <si>
+    <t>chendongming_jsgc</t>
+  </si>
+  <si>
+    <t>15283450435</t>
+  </si>
+  <si>
+    <t>瞿羿</t>
+  </si>
+  <si>
+    <t>quyi_jsgc</t>
+  </si>
+  <si>
+    <t>18011080505</t>
+  </si>
+  <si>
+    <t>张婧</t>
   </si>
   <si>
     <t>凉山州会理县交通局</t>
   </si>
   <si>
-    <t>kangjun_jsgc</t>
-  </si>
-  <si>
-    <t>15244996669</t>
-  </si>
-  <si>
-    <t>周长超</t>
-  </si>
-  <si>
-    <t>凉山州冕宁县交通局</t>
-  </si>
-  <si>
-    <t>zhouchangchao_jsgc</t>
-  </si>
-  <si>
-    <t>13550457739</t>
+    <t>zhangjing_jsgc</t>
+  </si>
+  <si>
+    <t>18328836789</t>
+  </si>
+  <si>
+    <t>郭俊成</t>
+  </si>
+  <si>
+    <t>四川路桥公司</t>
+  </si>
+  <si>
+    <t>guojuncheng_jsgc</t>
+  </si>
+  <si>
+    <t>13880463453</t>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
+    <t>wanglei_jsgc</t>
+  </si>
+  <si>
+    <t>17377190061</t>
+  </si>
+  <si>
+    <t>上官川鹤</t>
+  </si>
+  <si>
+    <t>sgch_jsgc</t>
+  </si>
+  <si>
+    <t>13980567887</t>
   </si>
   <si>
     <t>何颜均</t>
@@ -289,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -326,6 +419,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,8 +434,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,14 +474,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,32 +494,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,8 +518,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,52 +549,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -485,187 +578,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,16 +826,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +842,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,22 +895,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,145 +916,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="A5" sqref="$A5:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1417,53 +1510,187 @@
         <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1493,16 +1720,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E1">
         <v>123</v>
@@ -1510,16 +1737,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -1527,16 +1754,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>123</v>
@@ -1544,13 +1771,13 @@
     </row>
     <row r="4" customFormat="1" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>13990501957</v>
@@ -1561,14 +1788,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>123</v>
@@ -1576,13 +1803,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1">
         <v>13518298836</v>
@@ -1593,13 +1820,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1">
         <v>13281918881</v>
@@ -1610,13 +1837,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
         <v>18482142057</v>
@@ -1627,13 +1854,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1">
         <v>18181118530</v>
@@ -1644,13 +1871,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1">
         <v>18783971113</v>
@@ -1661,13 +1888,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1">
         <v>18581730362</v>
@@ -1678,13 +1905,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1">
         <v>13980319709</v>
@@ -1695,13 +1922,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1">
         <v>18048954797</v>
@@ -1712,13 +1939,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1">
         <v>18781749072</v>
@@ -1729,13 +1956,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1">
         <v>15775866222</v>
@@ -1746,13 +1973,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1">
         <v>18780712164</v>
@@ -1763,13 +1990,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1">
         <v>15228161368</v>
@@ -1780,13 +2007,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
         <v>17745479811</v>
@@ -1797,13 +2024,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1">
         <v>18111010691</v>
@@ -1814,13 +2041,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1">
         <v>13508271799</v>
@@ -1831,13 +2058,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1">
         <v>13990873410</v>
@@ -1848,13 +2075,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1">
         <v>13778183919</v>
@@ -1865,13 +2092,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1">
         <v>15881481871</v>
@@ -1882,13 +2109,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1">
         <v>18990776911</v>
@@ -1899,13 +2126,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1">
         <v>18349843183</v>
